--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="レベルアップ" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -38,6 +39,30 @@
   </si>
   <si>
     <t xml:space="preserve">PacketBase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketLevelUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LevelUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultExp</t>
   </si>
 </sst>
 </file>
@@ -149,7 +174,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -193,4 +218,101 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -9,7 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="レベルアップ" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="経験値追加" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="レベルアップ" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -41,16 +42,25 @@
     <t xml:space="preserve">PacketBase</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketAddExp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddExp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketLevelUp</t>
   </si>
   <si>
     <t xml:space="preserve">LevelUp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$MEMBER$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">MaxHp</t>
@@ -175,7 +185,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A5:C7 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -225,10 +235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -273,43 +283,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="A5:C7 C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -9,8 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="経験値追加" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="レベルアップ" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="エリア移動" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="経験値追加" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="レベルアップ" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -42,13 +43,34 @@
     <t xml:space="preserve">PacketBase</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketAreaMove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaMove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketAddExp</t>
   </si>
   <si>
     <t xml:space="preserve">AddExp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$MEMBER$</t>
   </si>
   <si>
     <t xml:space="preserve">s32</t>
@@ -185,7 +207,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A5:C7 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -235,10 +257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="A5:C7"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -283,10 +305,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -299,10 +343,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="A5:C7 C8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,7 +369,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,10 +385,74 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,10 +460,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="エリア移動" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="経験値追加" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="レベルアップ" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="エリア移動リクエスト" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="経験値追加" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="レベルアップ" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -65,6 +66,12 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketAreaMoveRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaMoveRequest</t>
   </si>
   <si>
     <t xml:space="preserve">PacketAddExp</t>
@@ -259,7 +266,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -330,7 +337,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -339,6 +346,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -361,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,10 +456,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -402,7 +473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -425,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,10 +553,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">AreaMoveRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaMoveId</t>
   </si>
   <si>
     <t xml:space="preserve">PacketAddExp</t>
@@ -353,7 +356,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,7 +398,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -432,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,10 +459,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -496,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,10 +523,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,10 +545,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="エリア移動" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="エリア移動リクエスト" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="経験値追加" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="レベルアップ" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="エリア移動レスポンス" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="経験値追加" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="レベルアップ" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -75,6 +76,30 @@
   </si>
   <si>
     <t xml:space="preserve">AreaMoveId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketAreaMoveResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaMoveResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ENUM$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
   </si>
   <si>
     <t xml:space="preserve">PacketAddExp</t>
@@ -355,7 +380,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -413,6 +438,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -435,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,10 +570,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -499,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,10 +634,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,10 +656,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
   </si>
   <si>
     <t xml:space="preserve">PacketAreaMoveRequest</t>
@@ -292,10 +295,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -360,6 +363,17 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -396,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,7 +437,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -444,7 +458,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -460,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,24 +495,24 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,10 +584,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,10 +648,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,10 +659,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,10 +681,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">LevelUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
   </si>
   <si>
     <t xml:space="preserve">MaxHp</t>
@@ -297,7 +300,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -606,10 +609,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -644,11 +647,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>32</v>
@@ -685,6 +688,17 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -60,18 +60,30 @@
     <t xml:space="preserve">AreaId</t>
   </si>
   <si>
+    <t xml:space="preserve">エリアＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">float</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
+    <t xml:space="preserve">Ｘ座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
+    <t xml:space="preserve">Ｙ座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">Z</t>
   </si>
   <si>
+    <t xml:space="preserve">Ｚ座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketAreaMoveRequest</t>
   </si>
   <si>
@@ -96,15 +108,24 @@
     <t xml:space="preserve">Success</t>
   </si>
   <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fatal</t>
   </si>
   <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
     <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">Result</t>
   </si>
   <si>
+    <t xml:space="preserve">結果</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketAddExp</t>
   </si>
   <si>
@@ -117,6 +138,9 @@
     <t xml:space="preserve">Exp</t>
   </si>
   <si>
+    <t xml:space="preserve">経験値</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketLevelUp</t>
   </si>
   <si>
@@ -126,13 +150,25 @@
     <t xml:space="preserve">Level</t>
   </si>
   <si>
+    <t xml:space="preserve">レベル</t>
+  </si>
+  <si>
     <t xml:space="preserve">MaxHp</t>
   </si>
   <si>
+    <t xml:space="preserve">最大ＨＰ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atk</t>
   </si>
   <si>
+    <t xml:space="preserve">攻撃力</t>
+  </si>
+  <si>
     <t xml:space="preserve">Def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防御力</t>
   </si>
   <si>
     <t xml:space="preserve">ResultExp</t>
@@ -298,10 +334,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,16 +381,22 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,10 +404,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,10 +418,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -395,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,7 +488,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -459,10 +510,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,24 +549,30 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,10 +580,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -545,10 +605,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,10 +647,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -609,10 +672,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,7 +717,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,10 +728,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,10 +742,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,10 +756,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,10 +770,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -159,16 +159,34 @@
     <t xml:space="preserve">最大ＨＰ</t>
   </si>
   <si>
-    <t xml:space="preserve">Atk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻撃力</t>
+    <t xml:space="preserve">Str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STR</t>
   </si>
   <si>
     <t xml:space="preserve">Def</t>
   </si>
   <si>
-    <t xml:space="preserve">防御力</t>
+    <t xml:space="preserve">DEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIT</t>
   </si>
   <si>
     <t xml:space="preserve">ResultExp</t>
@@ -607,7 +625,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -672,10 +690,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>42</v>
@@ -742,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>44</v>
@@ -756,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>46</v>
@@ -770,12 +788,54 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Packet/PacketData/Game.xlsx
+++ b/Packet/PacketData/Game.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t xml:space="preserve">最大ＨＰ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaseMaxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基礎最大ＨＰ</t>
   </si>
   <si>
     <t xml:space="preserve">Str</t>
@@ -690,10 +696,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -830,12 +836,26 @@
         <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>37</v>
       </c>
     </row>
